--- a/Data/g3.4.xlsx
+++ b/Data/g3.4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35375235</v>
+        <v>35248212</v>
       </c>
       <c r="D41" t="n">
-        <v>64188949</v>
+        <v>64164183</v>
       </c>
       <c r="E41" t="n">
-        <v>4994992</v>
+        <v>4981477</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6286834</v>
+        <v>6154165</v>
       </c>
       <c r="D42" t="n">
-        <v>25624482</v>
+        <v>25634101</v>
       </c>
       <c r="E42" t="n">
-        <v>975973</v>
+        <v>982499</v>
       </c>
     </row>
     <row r="43">
@@ -1256,6 +1256,63 @@
       </c>
       <c r="E43" t="n">
         <v>37338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>35743862</v>
+      </c>
+      <c r="D44" t="n">
+        <v>67313986</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5409429</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6433173</v>
+      </c>
+      <c r="D45" t="n">
+        <v>26527239</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1079815</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>678508</v>
+      </c>
+      <c r="D46" t="n">
+        <v>192461</v>
+      </c>
+      <c r="E46" t="n">
+        <v>41268</v>
       </c>
     </row>
   </sheetData>
